--- a/biology/Médecine/Bêta-Lactame/Bêta-Lactame.xlsx
+++ b/biology/Médecine/Bêta-Lactame/Bêta-Lactame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Lactame</t>
+          <t>Bêta-Lactame</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un noyau β-lactame est un lactame contenant trois atomes de carbone et un d'azote dans son cycle. Le cycle β-lactame appartient à divers antibiotiques, tels la pénicilline. Ces antibiotiques sont appelés pour cela antibiotiques β-lactamine. Ces antibiotiques agissent par inhibition de la synthèse de la paroi cellulaire de la bactérie. Ceci a un effet létal sur les bactéries, en particulier celles à Gram-positif. Les bactéries peuvent devenir résistantes aux antibiotiques β-lactame par l'expression d'une bêta-lactamase ou par modification des protéines de surface sur laquelle les antibiotiques se lient.
 De par son mode d'action, cet antibiotique n'est pas efficace contre les bactéries intracellulaires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Lactame</t>
+          <t>Bêta-Lactame</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de synthétiser des β-lactames par réaction de cycloaddition [2+2] entre une imine et un cétène.
-Les premiers β-lactames synthétiques furent préparés par Hermann Staudinger en 1907 par réaction de la base de Schiff (imine) formée par réaction entre l'aniline et le benzaldéhyde, et le diphénylcétène[1],[2] :
+Les premiers β-lactames synthétiques furent préparés par Hermann Staudinger en 1907 par réaction de la base de Schiff (imine) formée par réaction entre l'aniline et le benzaldéhyde, et le diphénylcétène, :
 </t>
         </is>
       </c>
